--- a/API_testing_framework/data/data.xlsx
+++ b/API_testing_framework/data/data.xlsx
@@ -51,10 +51,13 @@
     <t>状态码</t>
   </si>
   <si>
-    <t>期望结果</t>
-  </si>
-  <si>
-    <t>case_001</t>
+    <t>断言</t>
+  </si>
+  <si>
+    <t>是否通过</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
   <si>
     <t>登录</t>
@@ -82,9 +85,6 @@
   </si>
   <si>
     <t>{"success":true}</t>
-  </si>
-  <si>
-    <t>case_002</t>
   </si>
   <si>
     <t>登录店员端</t>
@@ -103,8 +103,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -137,10 +137,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -153,45 +177,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,8 +198,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,36 +208,42 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -274,13 +274,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,7 +424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,37 +436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,109 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,6 +459,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -473,41 +497,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,23 +528,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,145 +567,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1073,7 +1073,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
@@ -1090,10 +1090,10 @@
     <col min="9" max="9" width="9.66666666666667" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.66666666666667" style="2" customWidth="1"/>
     <col min="11" max="11" width="7.66666666666667" style="2" customWidth="1"/>
-    <col min="12" max="12" width="67.5555555555556" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.5555555555556" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1130,48 +1130,54 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" ht="72" spans="1:12">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
+      <c r="A2" s="2">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="2">
         <v>200</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" ht="57.6" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
+      <c r="A3" s="2">
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>23</v>
@@ -1180,25 +1186,25 @@
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3" s="2">
         <v>200</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
